--- a/biology/Biochimie/NADPH_oxydase/NADPH_oxydase.xlsx
+++ b/biology/Biochimie/NADPH_oxydase/NADPH_oxydase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La NADPH oxydase (NOX) est un complexe enzymatique membranaire appartenant à la classe des oxydoréductases (enzymes de classe I). C'est l'enzyme clé de l'explosion oxydative, où elle catalyse la réaction d’oxydation du NADPH par l'oxygène O2, ce qui produit du NADP+, de l'H+ et de l'O2−. Ces deux derniers réagissent ensuite sous l'action de la superoxyde dismutase pour former du peroxyde d'hydrogène H2O2, lequel réagit enfin sous l'action de la myéloperoxydase avec un proton H+ et un ion chlorure Cl− pour donner de l'acide hypochloreux HOCl et une molécule d'eau H2O[1].
-Ce complexe enzymatique permet donc la synthèse de dérivés réactifs de l'oxygène mais augmente également l'activité des peptidases[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La NADPH oxydase (NOX) est un complexe enzymatique membranaire appartenant à la classe des oxydoréductases (enzymes de classe I). C'est l'enzyme clé de l'explosion oxydative, où elle catalyse la réaction d’oxydation du NADPH par l'oxygène O2, ce qui produit du NADP+, de l'H+ et de l'O2−. Ces deux derniers réagissent ensuite sous l'action de la superoxyde dismutase pour former du peroxyde d'hydrogène H2O2, lequel réagit enfin sous l'action de la myéloperoxydase avec un proton H+ et un ion chlorure Cl− pour donner de l'acide hypochloreux HOCl et une molécule d'eau H2O.
+Ce complexe enzymatique permet donc la synthèse de dérivés réactifs de l'oxygène mais augmente également l'activité des peptidases.
 			(en) Réaction globale de formation d'ion superoxyde à partir de NADPH.
 Chez l'humain, on connaît sept variantes de la NADPH oxydase : NOX1, 2, 3, 4, 5, et DUOX1 et 2, ces variantes ont toutes une fonction spécifique au sein de l’organisme (cf "rôles physiologiques").
 Chez les champignons, il existe trois variantes de la NADPH Oxydase : NoxA (homologue de Nox1), NoxB (homologue de Nox2) et NoxC.
@@ -515,9 +527,11 @@
           <t>Distribution dans le vivant</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve ce complexe enzymatique chez les animaux, chez les plantes[3], où il régule la croissance des cellules, et chez les champignons, où il agit comme déclencheur de différentes phases du développement du mycélium[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve ce complexe enzymatique chez les animaux, chez les plantes, où il régule la croissance des cellules, et chez les champignons, où il agit comme déclencheur de différentes phases du développement du mycélium.
 Les cellules phagocytaires, en particulier les neutrophiles et les macrophages, contiennent en grande quantité la NADPH oxydase NOX2, aussi appelée par conséquent NADPH oxydase du phagocyte. NOX2 est l'isoforme historiquement le plus étudié et le mieux connu de la famille. Les caractéristiques générales des NADPH oxydases données dans cet article sont basées sur ce prototype.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Coenzyme : NADP+/NADPH</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nicotinamide adénine dinucléotide phosphate (NADP) est un coenzyme utilisé notamment dans les réactions d’anabolisme. Il provient principalement de la phase oxydative de la voie des pentoses phosphates.
 Ce coenzyme, sous forme réduite NADPH, peut être oxydé par l’oxygène moléculaire O2 en NADP+ sous l’action de la NOx. Ceci aboutit à la formation de ROS (O2.-, H2O2, HOCl).
@@ -579,7 +595,9 @@
           <t>Rôles physiologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">NOX1 et 4 interviennent dans la synthèse de l’angiotensine II (au niveau du rein).
 NOX2 intervient dans le phénomène de la phagocytose.
@@ -614,7 +632,9 @@
           <t>Rôles en phytopathologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">NOX A et B interviennent dans la formation des appressoriums et des sclérotes.
 </t>
@@ -647,28 +667,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Localisation
-A l'échelle de la cellule, le complexe fonctionnel NADPH oxydase (NOX2) est localisé différemment selon la fonction cellulaire dans laquelle il est impliqué. Il sera par exemple au niveau de la membrane des phagolysosomes (issus de la fusion entre un phagosome et un lysosome dans les macrophages) ou des phagosomes (neutrophiles), lors de la phagocytose ce qui contribuera à la destruction du corps phagocyté. L'activation peut aussi avoir lieu à la membrane plasmique, en particulier dans le cas des processus inflammatoires. 
-Sous-unités
-La NADPH oxydase est composée de six sous-unités se regroupant pour former le complexe enzymatique au niveau de la membrane plasmique du phagolysosome. Cette association permet l'oxydation du NADPH en NADP+, ce qui aboutit à la synthèse de ROS[5].
-Le cytochrome b558
-Le cytochrome b558 est intégré à la membrane, constitué de deux sous-unités  : p22phox et Nox2.
-Dans les neutrophiles au repos, la plupart du cytochrome b558 est concentré dans les granules spécifiques. Lors de l’activation du neutrophile, les granules fusionnent avec la membrane du phagosome. 
-Rap 1A
-Rap 1A est une petite protéine G de 22 kDa, très abondante dans les neutrophiles. Les petites protéines G lient le GTP (guanosine triphosphate) / GDP (guanosine diphosphate). Elles sont actives lorsqu’elles sont liées à une molécule de GTP. Rap1A  est associée au cytochrome b558 dans les neutrophiles.
-Sous sa forme active (liée au GTP), Rap1A se fixe plus étroitement au cytochrome  b558.
-Le rôle de Rap1A n’a pas encore été clairement élucidé. Elle pourrait être un régulateur de la NADPH oxydase.
-Sous-unité p47phox
-La sous-unité p47phox assure la fonction « d’organisateur » ou « d’adaptateur » en permettant la translocation de p67phox et p40phox à la membrane.
-Sous-unité p67phox
-Le facteur p67phox est « l’activateur » du complexe oxydase. Son association au cytochrome b558 est essentielle à l’activité oxydase.
-Sous-unite p40phox
-Plus récemment[Quand ?], l’importance de p40phox dans la production de O2.- (ion superoxyde)a été confirmée dans le cadre d’une activation induite par phagocytose via le récepteur FcγR . Dans ces conditions, la protéine p40phox n’est pas primordiale dans le processus d’assemblage mais plutôt dans la régulation de l’activité après assemblage complet au niveau du phagosome.
-Sous-unité Rac
-La protéine Rac, membre de la famille des petites GTPases, est un élément  essentiel à l’activité oxydase lorsqu’elle est sous sa forme liée au GTP.
-Il y association  directe entre Rac et le cytochrome  b558. Au repos, Rac est cytoplasmique et associée à une protéine RhoGDI (GDP dissociation inhibitor) qui la maintient sous  forme inactive liée au GDP. L’activation du neutrophile induit la dissociation de RhoGDI, permettant l'échange du GDP par un GTP, convertissant Rac dans une conformation active, permettant sa translocation à la membrane.
-Fonctionnement[6]
-Ces réactions successives, impliquant les ROS, aboutissent à une plus faible concentration d’inhibiteurs des protéases et donc à une activité des protéases augmentée[7],[2]. La destruction de l'élément phagocyté s'en trouve donc facilitée.
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A l'échelle de la cellule, le complexe fonctionnel NADPH oxydase (NOX2) est localisé différemment selon la fonction cellulaire dans laquelle il est impliqué. Il sera par exemple au niveau de la membrane des phagolysosomes (issus de la fusion entre un phagosome et un lysosome dans les macrophages) ou des phagosomes (neutrophiles), lors de la phagocytose ce qui contribuera à la destruction du corps phagocyté. L'activation peut aussi avoir lieu à la membrane plasmique, en particulier dans le cas des processus inflammatoires. 
 </t>
         </is>
       </c>
@@ -694,16 +699,342 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Description de l’enzyme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-unités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La NADPH oxydase est composée de six sous-unités se regroupant pour former le complexe enzymatique au niveau de la membrane plasmique du phagolysosome. Cette association permet l'oxydation du NADPH en NADP+, ce qui aboutit à la synthèse de ROS.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description de l’enzyme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-unités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Le cytochrome b558</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cytochrome b558 est intégré à la membrane, constitué de deux sous-unités  : p22phox et Nox2.
+Dans les neutrophiles au repos, la plupart du cytochrome b558 est concentré dans les granules spécifiques. Lors de l’activation du neutrophile, les granules fusionnent avec la membrane du phagosome. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description de l’enzyme</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-unités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Rap 1A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rap 1A est une petite protéine G de 22 kDa, très abondante dans les neutrophiles. Les petites protéines G lient le GTP (guanosine triphosphate) / GDP (guanosine diphosphate). Elles sont actives lorsqu’elles sont liées à une molécule de GTP. Rap1A  est associée au cytochrome b558 dans les neutrophiles.
+Sous sa forme active (liée au GTP), Rap1A se fixe plus étroitement au cytochrome  b558.
+Le rôle de Rap1A n’a pas encore été clairement élucidé. Elle pourrait être un régulateur de la NADPH oxydase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Description de l’enzyme</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous-unités</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sous-unité p47phox</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-unité p47phox assure la fonction « d’organisateur » ou « d’adaptateur » en permettant la translocation de p67phox et p40phox à la membrane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Description de l’enzyme</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous-unités</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sous-unité p67phox</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le facteur p67phox est « l’activateur » du complexe oxydase. Son association au cytochrome b558 est essentielle à l’activité oxydase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Description de l’enzyme</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous-unités</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sous-unite p40phox</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus récemment[Quand ?], l’importance de p40phox dans la production de O2.- (ion superoxyde)a été confirmée dans le cadre d’une activation induite par phagocytose via le récepteur FcγR . Dans ces conditions, la protéine p40phox n’est pas primordiale dans le processus d’assemblage mais plutôt dans la régulation de l’activité après assemblage complet au niveau du phagosome.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Description de l’enzyme</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sous-unités</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sous-unité Rac</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine Rac, membre de la famille des petites GTPases, est un élément  essentiel à l’activité oxydase lorsqu’elle est sous sa forme liée au GTP.
+Il y association  directe entre Rac et le cytochrome  b558. Au repos, Rac est cytoplasmique et associée à une protéine RhoGDI (GDP dissociation inhibitor) qui la maintient sous  forme inactive liée au GDP. L’activation du neutrophile induit la dissociation de RhoGDI, permettant l'échange du GDP par un GTP, convertissant Rac dans une conformation active, permettant sa translocation à la membrane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Description de l’enzyme</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fonctionnement[6]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces réactions successives, impliquant les ROS, aboutissent à une plus faible concentration d’inhibiteurs des protéases et donc à une activité des protéases augmentée,. La destruction de l'élément phagocyté s'en trouve donc facilitée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/NADPH_oxydase</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Implications dans des pathologies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">L'activité des NOX, quand insuffisante, peut être à l'origine de pathologies telles que les inflammations chroniques, les maladies cardio-vasculaires et diverses maladies liées au vieillissement (arthrose)
 Concernant NOX 1, 4 et 5, les données concernant la physiopathologie sont fragmentaires mais on suspecte leur rôle dans l’hypertension.
 Une déficience concernant NOX 2 peut entrainer une granulomatose septique chronique (syndrome d'immunodéficience héréditaire)
 NOX 3 est impliquée dans des pathologies du système vestibulaire.
-DUOX 1 et 2 impliquées dans des pathologies thyroïdiennes[8] (hypothyroïdie congénitale).
+DUOX 1 et 2 impliquées dans des pathologies thyroïdiennes (hypothyroïdie congénitale).
 </t>
         </is>
       </c>
